--- a/test/tran.xlsx
+++ b/test/tran.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\ИСИТ\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\identifying-the-rules\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="13">
   <si>
     <t>Номер чека</t>
   </si>
@@ -64,9 +64,6 @@
   <si>
     <t>Альбом</t>
   </si>
-  <si>
-    <t>Бумаша</t>
-  </si>
 </sst>
 </file>
 
@@ -264,43 +261,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -315,6 +307,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF66CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -589,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,115 +607,115 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="9"/>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="11"/>
@@ -727,119 +724,119 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="9"/>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="10" t="s">
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="11" t="s">
@@ -850,25 +847,25 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="B11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="11"/>
@@ -877,25 +874,25 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="B12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="11"/>
@@ -904,448 +901,453 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5"/>
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="B15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="B17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="9"/>
+      <c r="B18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="B19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="B20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="9"/>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="B21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="D23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="B24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="9" t="s">
+      <c r="B25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="B26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="B27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="10" t="s">
+      <c r="B28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="B29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="F29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="D30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="D31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
